--- a/DTech Studio Internship Yatharth Chauhan.xlsx
+++ b/DTech Studio Internship Yatharth Chauhan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Summer-Internship-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00988E57-EAA2-442C-875D-92D2227E49AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC2E493-08B4-4F9F-B1FB-45696CDF1B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1520" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2860" yWindow="1550" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -465,8 +465,8 @@
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:F17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/DTech Studio Internship Yatharth Chauhan.xlsx
+++ b/DTech Studio Internship Yatharth Chauhan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Summer-Internship-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC2E493-08B4-4F9F-B1FB-45696CDF1B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C256BE-D723-4F33-8F69-99FF82C73119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2860" yWindow="1550" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>DATE</t>
   </si>
@@ -145,6 +145,27 @@
   </si>
   <si>
     <t xml:space="preserve">working on video call web project and work on one logo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design WhatsFolio Sign In Page </t>
+  </si>
+  <si>
+    <t>Working on WhatsFolio Logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Designing multiple screen of WhatsFolio App </t>
+  </si>
+  <si>
+    <t>Design Nasa Industries Logo</t>
+  </si>
+  <si>
+    <t>Design one more variation of Nasa Industries Logo and Start Redesigning Web UI of Nasa Industries</t>
+  </si>
+  <si>
+    <t>Design Modern UI of registration Page</t>
+  </si>
+  <si>
+    <t>Design Modern UI of registration Page and add content and workng on Nasa Industries Project</t>
   </si>
 </sst>
 </file>
@@ -465,8 +486,8 @@
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:F10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -952,7 +973,9 @@
       <c r="A40" s="3">
         <v>44729</v>
       </c>
-      <c r="B40" s="7"/>
+      <c r="B40" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -962,62 +985,90 @@
       <c r="A41" s="3">
         <v>44730</v>
       </c>
-      <c r="B41" s="7"/>
+      <c r="B41" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="7"/>
+      <c r="A42" s="3">
+        <v>44732</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="7"/>
+      <c r="A43" s="3">
+        <v>44733</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="7"/>
+    <row r="44" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>44734</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
+      <c r="A45" s="3">
+        <v>44735</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="7"/>
+      <c r="A46" s="3">
+        <v>44736</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="7"/>
+      <c r="A47" s="3">
+        <v>44737</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
+      <c r="A48" s="3">
+        <v>44739</v>
+      </c>
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -1025,7 +1076,9 @@
       <c r="F48" s="8"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
+      <c r="A49" s="3">
+        <v>44740</v>
+      </c>
       <c r="B49" s="7"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -1033,7 +1086,9 @@
       <c r="F49" s="8"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
+      <c r="A50" s="3">
+        <v>44741</v>
+      </c>
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -1041,7 +1096,9 @@
       <c r="F50" s="8"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
+      <c r="A51" s="3">
+        <v>44742</v>
+      </c>
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -1049,7 +1106,9 @@
       <c r="F51" s="8"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
+      <c r="A52" s="3">
+        <v>44743</v>
+      </c>
       <c r="B52" s="7"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -1082,54 +1141,6 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="B1:F1"/>
@@ -1144,6 +1155,54 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DTech Studio Internship Yatharth Chauhan.xlsx
+++ b/DTech Studio Internship Yatharth Chauhan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Summer-Internship-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C256BE-D723-4F33-8F69-99FF82C73119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52463103-60D3-40DF-95D2-A08E9510FC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1550" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,15 +144,6 @@
     <t>working on video call web project</t>
   </si>
   <si>
-    <t xml:space="preserve">working on video call web project and work on one logo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design WhatsFolio Sign In Page </t>
-  </si>
-  <si>
-    <t>Working on WhatsFolio Logo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Start Designing multiple screen of WhatsFolio App </t>
   </si>
   <si>
@@ -166,6 +157,15 @@
   </si>
   <si>
     <t>Design Modern UI of registration Page and add content and workng on Nasa Industries Project</t>
+  </si>
+  <si>
+    <t>Completed the video call web project</t>
+  </si>
+  <si>
+    <t>Completed the WhatsFolio Logo Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design WhatsFolio Sign Up Page </t>
   </si>
 </sst>
 </file>
@@ -486,8 +486,8 @@
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:F48"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -962,7 +962,7 @@
         <v>44728</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -974,7 +974,7 @@
         <v>44729</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -986,7 +986,7 @@
         <v>44730</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -998,7 +998,7 @@
         <v>44732</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -1010,7 +1010,7 @@
         <v>44733</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -1022,7 +1022,7 @@
         <v>44734</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -1046,7 +1046,7 @@
         <v>44736</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -1058,7 +1058,7 @@
         <v>44737</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -1141,6 +1141,54 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="B1:F1"/>
@@ -1155,54 +1203,6 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B52:F52"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
